--- a/Moteino_BOM.xlsx
+++ b/Moteino_BOM.xlsx
@@ -96,9 +96,6 @@
     <t>Your favorite PCB fab</t>
   </si>
   <si>
-    <t>Sparkfun, ModernDevice, (hopefully LowPowerLab.com as well one day)</t>
-  </si>
-  <si>
     <t>MCP1700 3.3v (up to 6V in)</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>lowpowerlab.com/shop</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +614,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
@@ -625,13 +625,13 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
@@ -680,13 +680,13 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
@@ -717,7 +717,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="11"/>
     </row>

--- a/Moteino_BOM.xlsx
+++ b/Moteino_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>cap 0.1uf 0603</t>
   </si>
@@ -60,9 +60,6 @@
     <t>http://www.digikey.com/scripts/DKSearch/dksus.dll?Detail&amp;itemSeq=123239606&amp;uq=634903057332793783</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-detail/en/MCP1700T-3302E%2FTT/MCP1700T3302ETTCT-ND/652677</t>
-  </si>
-  <si>
     <t>male headers</t>
   </si>
   <si>
@@ -96,15 +93,6 @@
     <t>Your favorite PCB fab</t>
   </si>
   <si>
-    <t>MCP1700 3.3v (up to 6V in)</t>
-  </si>
-  <si>
-    <t>MCP1702 3v3 (up to 13V in)</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/MCP1702T-3002E%2FCB/MCP1702T-3002E%2FCBCT-ND/1979827</t>
-  </si>
-  <si>
     <t>You can use 1uF instead of 0.1uF</t>
   </si>
   <si>
@@ -117,7 +105,16 @@
     <t>?</t>
   </si>
   <si>
-    <t>lowpowerlab.com/shop</t>
+    <t>http://www.digikey.com/product-detail/en/MCP1703T-3302E%2FCB/MCP1703T-3302E%2FCBCT-ND/1776945</t>
+  </si>
+  <si>
+    <t>MCP1703 3v3 (up to 16V in)</t>
+  </si>
+  <si>
+    <t>RFM69</t>
+  </si>
+  <si>
+    <t>www.lowpowerlab.com/shop</t>
   </si>
 </sst>
 </file>
@@ -202,7 +199,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -229,6 +226,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -536,7 +534,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,12 +547,12 @@
   <sheetData>
     <row r="1" spans="2:4" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -565,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -592,13 +590,13 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -614,35 +612,32 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
+      <c r="D8" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>28</v>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -669,46 +664,46 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="11">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -717,7 +712,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" s="11"/>
     </row>
@@ -767,9 +762,12 @@
     <hyperlink ref="D12" r:id="rId7"/>
     <hyperlink ref="D11" r:id="rId8"/>
     <hyperlink ref="D19" r:id="rId9"/>
+    <hyperlink ref="D8" r:id="rId10"/>
+    <hyperlink ref="D9" r:id="rId11"/>
+    <hyperlink ref="D10" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/Moteino_BOM.xlsx
+++ b/Moteino_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>cap 0.1uf 0603</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Ceramic Res SMD 16Mhz</t>
   </si>
   <si>
-    <t>ATMega328p TQFP32</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/RC0603JR-0710KL/311-10KGRCT-ND/729647?cur=USD</t>
   </si>
   <si>
@@ -115,6 +112,15 @@
   </si>
   <si>
     <t>www.lowpowerlab.com/shop</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/ATMEGA1284P-AU/ATMEGA1284P-AU-ND/1914519</t>
+  </si>
+  <si>
+    <t>ATMega1284P-AU TQFP44</t>
+  </si>
+  <si>
+    <t>ATMega328P-AU TQFP32</t>
   </si>
 </sst>
 </file>
@@ -530,11 +536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D33"/>
+  <dimension ref="B1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,159 +553,159 @@
   <sheetData>
     <row r="1" spans="2:4" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7">
+        <v>33</v>
+      </c>
+      <c r="C4" s="8">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="7">
         <v>1</v>
       </c>
       <c r="D16" t="s">
@@ -707,25 +713,33 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="11"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="1"/>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
@@ -742,8 +756,8 @@
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D31" s="1"/>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="1"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
@@ -751,20 +765,23 @@
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D7" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D13" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D8" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D14" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
     <hyperlink ref="D3" r:id="rId6"/>
-    <hyperlink ref="D12" r:id="rId7"/>
-    <hyperlink ref="D11" r:id="rId8"/>
-    <hyperlink ref="D19" r:id="rId9"/>
-    <hyperlink ref="D8" r:id="rId10"/>
-    <hyperlink ref="D9" r:id="rId11"/>
-    <hyperlink ref="D10" r:id="rId12"/>
+    <hyperlink ref="D13" r:id="rId7"/>
+    <hyperlink ref="D12" r:id="rId8"/>
+    <hyperlink ref="D20" r:id="rId9"/>
+    <hyperlink ref="D9" r:id="rId10"/>
+    <hyperlink ref="D10" r:id="rId11"/>
+    <hyperlink ref="D11" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
